--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_3_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_3_square_0.5_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.55000000000055</v>
+        <v>25.04000000000048</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="H2" t="n">
-        <v>6.083413833562501e-16</v>
+        <v>4.493137887894751e-14</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>52.23731541243094</v>
+        <v>49.73486164912988</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[41.08024557474002, 63.39438525012186]</t>
+          <t>[37.10719197702518, 62.362531321234584]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.89608353859694e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.792167077193881e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.37739497724958</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3899739268135027, 1.8679740102425795]</t>
+          <t>[1.0880791372793475, 1.666710817219812]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.94565296320606</v>
+        <v>66.83793966144387</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.63147503543928, 71.25983089097284]</t>
+          <t>[59.10552611749495, 74.57035320539279]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.92592592592634</v>
+        <v>19.55075075075112</v>
       </c>
       <c r="X2" t="n">
-        <v>17.95405405405445</v>
+        <v>18.3977577577581</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.89779779779823</v>
+        <v>20.70374374374414</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.03000000000016</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.796451876145966e-12</v>
+        <v>6.106859462562397e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>5.427172455150208e-12</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.623407324874787e-09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4719533011521135</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>58.02074856980663</v>
+        <v>42.19988363933471</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.59385054467974, 77.44764659493352]</t>
+          <t>[27.741348845582635, 56.658418433086794]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.522890607536965e-08</v>
+        <v>4.826582644668065e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.522890607536965e-08</v>
+        <v>4.826582644668065e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.018894914677771</v>
+        <v>-2.80510575275485</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.3585265529036956, -0.6792632764518469]</t>
+          <t>[-3.1950531892364666, -2.4151583162732337]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.2181046333003e-08</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2181046333003e-08</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>70.05742413679336</v>
+        <v>59.71576571621465</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[59.9433945332799, 80.17145374030682]</t>
+          <t>[51.1648730767763, 68.266658355653]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.734594594594622</v>
+        <v>9.821821821821821</v>
       </c>
       <c r="X3" t="n">
-        <v>2.489729729729746</v>
+        <v>8.456456456456454</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.979459459459498</v>
+        <v>11.18718718718719</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_3_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_3_square_0.5_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.04000000000048</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.493137887894751e-14</v>
+        <v>6.483054158395075e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>49.73486164912988</v>
+        <v>58.23085517889769</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[37.10719197702518, 62.362531321234584]</t>
+          <t>[44.53539137445797, 71.92631898333741]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.89608353859694e-13</v>
+        <v>1.13242748511766e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>9.792167077193881e-13</v>
+        <v>2.264854970235319e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37739497724958</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0880791372793475, 1.666710817219812]</t>
+          <t>[1.490605523324887, 2.0189214050096576]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>66.83793966144387</v>
+        <v>73.85519976215897</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.10552611749495, 74.57035320539279]</t>
+          <t>[65.67452032721175, 82.0358791971062]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.55075075075112</v>
+        <v>18.50810810810852</v>
       </c>
       <c r="X2" t="n">
-        <v>18.3977577577581</v>
+        <v>17.42846846846886</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.70374374374414</v>
+        <v>19.58774774774819</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23.69000000000026</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.106859462562397e-10</v>
+        <v>9.615530593976018e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>1.623407324874787e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.4719533011521135</v>
-      </c>
+        <v>2.605761017588046e-10</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>42.19988363933471</v>
+        <v>50.84660609242452</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[27.741348845582635, 56.658418433086794]</t>
+          <t>[34.43158021817794, 67.26163196667109]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.826582644668065e-08</v>
+        <v>8.593428857395224e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>4.826582644668065e-08</v>
+        <v>8.593428857395224e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.80510575275485</v>
+        <v>0.1823947686768861</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.1950531892364666, -2.4151583162732337]</t>
+          <t>[-0.19497371824080556, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.340951722919159</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.340951722919159</v>
       </c>
       <c r="S3" t="n">
-        <v>59.71576571621465</v>
+        <v>63.67080138413704</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.1648730767763, 68.266658355653]</t>
+          <t>[54.028327575802955, 73.31327519247111]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.821821821821821</v>
+        <v>23.00230230230255</v>
       </c>
       <c r="X3" t="n">
-        <v>8.456456456456454</v>
+        <v>21.57947947947972</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.18718718718719</v>
+        <v>24.42512512512539</v>
       </c>
     </row>
   </sheetData>
